--- a/assets/other/country_adjectival_forms.xlsx
+++ b/assets/other/country_adjectival_forms.xlsx
@@ -5,20 +5,21 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TomDennis/apps/project0/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TomDennis/apps/project0/assets/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2260" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LU" sheetId="3" r:id="rId1"/>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Cuisines" sheetId="2" r:id="rId3"/>
+    <sheet name="Countries" sheetId="4" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Cuisines" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Cuisines!$A$1:$C$245</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$K$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Cuisines!$A$1:$C$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$1:$K$261</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LU!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="747">
   <si>
     <t>Abkhazia</t>
   </si>
@@ -2173,6 +2174,105 @@
   </si>
   <si>
     <t>Not Related to Country</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t>Bonaire, Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>Virgin Islands (British)</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Congo (Democratic Republic of the)</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Holy See</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Macedonia (the former Yugoslav Republic of)</t>
+  </si>
+  <si>
+    <t>Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t>Moldova (Republic of)</t>
+  </si>
+  <si>
+    <t>Korea (Democratic People's Republic of)</t>
+  </si>
+  <si>
+    <t>Palestine, State of</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>Republic of Kosovo</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Saint Martin (French part)</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>Korea (Republic of)</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Tanzania, United Republic of</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
   </si>
 </sst>
 </file>
@@ -2498,7 +2598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3604,6 +3704,1313 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B250"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="A245" sqref="A245"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>715</v>
+      </c>
+      <c r="B27" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>726</v>
+      </c>
+      <c r="B108" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>727</v>
+      </c>
+      <c r="B123" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>732</v>
+      </c>
+      <c r="B166" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>733</v>
+      </c>
+      <c r="B172" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>736</v>
+      </c>
+      <c r="B186" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>740</v>
+      </c>
+      <c r="B211" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>743</v>
+      </c>
+      <c r="B221" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>744</v>
+      </c>
+      <c r="B224" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>463</v>
+      </c>
+      <c r="B239" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>419</v>
+      </c>
+      <c r="B240" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>745</v>
+      </c>
+      <c r="B244" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>746</v>
+      </c>
+      <c r="B245" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J261"/>
   <sheetViews>
@@ -9722,7 +11129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C245"/>
